--- a/Crawling/eat.xlsx
+++ b/Crawling/eat.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,21 @@
           <t>굴짬뽕,중국집</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">짜장면 : 5,500원
+삼선짬뽕 : 9,000원
+볶음밥 : 7,000원
+삼선백짬뽕 : 9,000원
+탕수육 : 22,000원
+굴짬뽕 : 9,000원
+고추삼선짬뽕 : 10,500원
+삼선간짜장 : 8,500원
+삼선우동 : 9,500원
+고추삼선간짜장 : 9,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +501,20 @@
           <t>함바그,함박스테이크</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">언니네함바그M : 7,500원
+언니네함바그L : 8,000원
+언니네치즈함바그M : 8,000원
+언니네치즈함바그L : 8,500원
+언니네매콤함바그M : 7,800원
+언니네매콤함바그L : 8,300원
+생맥주 : 3,000원
+사이다 : 2,000원
+콜라 : 2,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -508,6 +537,18 @@
           <t>파스타,봉골레</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">포르치니(버섯크림리조또) : 11,500원
+카비알레(로제파스타) : 12,000원
+부카니에라 : 14,000원
+비텔로 : 15,500원
+아라트리치아나 : 11,000원
+모짜렐라 : 13,500원
+감베로니 : 16,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -530,6 +571,15 @@
           <t>보쌈정식,보쌈</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">보쌈정식 : 8,000원
+굴보쌈 : 39,000원
+김치보쌈 : 39,000원
+모듬보쌈 : 48,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -552,6 +602,17 @@
           <t>돈부리,가쯔동</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">오야꼬동 : 7,000원
+규동 : 7,000원
+가쯔동 : 7,000원
+핫도리동 : 7,000원
+사케동 : 10,000원
+더블사케동 : 13,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -574,6 +635,19 @@
           <t>떡볶이,팬스테이크</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">날치새우크림 파스타 : 9,000원
+베이컨크림 파스타 : 9,500원
+매콤토마토 파스타 : 9,000원
+로제 파스타 : 9,500원
+김치볶음밥 : 7,000원
+오무라이스 : 7,000원
+데리야끼 치킨덮밥 : 8,000원
+함박스테이크 : 10,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -596,6 +670,14 @@
           <t>냉라멘,라멘</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">규동 : 7,000원
+푸른콩 : 4,000원
+사누끼우동 : 8,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -618,6 +700,15 @@
           <t>태국음식,팟타이</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">푸팟퐁커리 : 20,000원
+팟타이 : 8,000원
+쏨땀 : 8,000원
+쌀국수 : 6,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -640,6 +731,23 @@
           <t>쌀국수,분짜</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pho bo (양지 쌀국수) : 8,000원
+Pho bo (양지 + 힘줄 쌀국수) : 9,000원
+면 추가 : 1,500원
+Bun Rieu (토마토 해산물 쌀국수) : 9,000원
+Bun Bo Xao (돼지고기 비빔 쌀국수) : 9,500원
+Com Suon (베트남 라이스) : 8,000원
+Bun Cha (분짜) : 9,500원
+Bun99 패키지 (쌀국수 + 라이스) : 10,000원
+Nem (베트남식 수제 만두) : 4,500원
+Chuoi Chien (바나나 튀김) : 4,000원
+베트남 맥주 (사이공/하노이) : 5,000원
+음료 (콜라/스프라이트) : 2,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -662,6 +770,20 @@
           <t>샐러드,훈제연어샐러드</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">저염 수비드닭가슴살 : 6,400원
+리코타치즈 샐러드 : 6,400원
+로제푸실리 샐러드 : 5,800원
+참치 통밀크래커 : 7,400원
+훈제오리쿠스쿠스 : 7,600원
+씨푸드 콥 : 7,800원
+후무스와 그릴드두부 : 6,400원
+노르웨이 항공직송 생연어 : 8,700원
+팟타이 라이트누들 : 7,600원
+</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -684,6 +806,23 @@
           <t>타르트,수제타르트</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">머스캣사이다냉침 : 5,000원
+스트로베리 타르트 : 6,800원
+레몬 타르트 : 3,000원
+호두 타르트 : 3,000원
+퐁당쇼콜라 타르트 : 3,000원
+초코머랭 타르트 : 3,000원
+초콜릿 타르트 : 3,000원
+치즈크럼블 타르트 : 3,300원
+무화과 타르트 : 3,300원
+블루베리치즈 타르트 : 3,300원
+스트로베리치즈 타르트 : 3,300원
+당근케이크 : 5,800원
+</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -706,6 +845,7 @@
           <t>김밥,참치김밥</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -728,6 +868,13 @@
           <t>앞샌드위치</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">클럽봉샌드위치 : 6,300원
+버터 카야 토스트 : 5,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -750,6 +897,18 @@
           <t>스테이크,규카츠</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">갈비살스테이크 : 15,000원
+살치살스테이크 : 16,000원
+규카츠 : 17,000원
+등심 : 15,000원
+리코타 치즈 샐러드 : 8,000원
+쉬림프샐러드 : 8,000원
+꽃살치살 : 21,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -772,48 +931,82 @@
           <t>찜닭,누룽지</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">찜닭 : 15,000원
+매운탕 : 3,200원
+뼈없는찜닭 : 17,000원
+볶음밥 : 2,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>foresti</t>
+          <t>미연마라탕 외대점</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>서울 동대문구 이문동 264-325</t>
+          <t>서울시 동대문구 이문동 288-37</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>070-7529-6789</t>
+          <t>02-966-9451</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>파니니,샌드위치</t>
+          <t>마라탕</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">마라탕 기본 : 5,000원
+마라탕 상궈 기본 : 15,000원
+소고기  100g : 3,000원
+양고기  100g : 3,000원
+마라상궈  100g : 3,000원
+</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>미연마라탕 외대점</t>
+          <t>foresti</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>서울시 동대문구 이문동 288-37</t>
+          <t>서울 동대문구 이문동 264-325</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>02-966-9451</t>
+          <t>070-7529-6789</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>마라탕</t>
+          <t>파니니,샌드위치</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">아메리카노 : 2,800원
+모짜렐라토마토빠니니 : 4,800원
+치즈치즈햄  : 4,800원
+구운가지 파니니 : 5,800원
+치킨루꼴라 파니니 : 5,800원
+햄치즈 루꼴라 파니니 : 5,800원
+치아바타 : 2,500원
+올리브치아바타 : 2,800원
+피칸 초코 쿠키 : 1,900원
+라즈베리 크림치즈 쿠키 : 2,500원
+</t>
         </is>
       </c>
     </row>
@@ -838,6 +1031,7 @@
           <t>베이커리,카페</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -860,6 +1054,14 @@
           <t>부대찌개,삼겹살</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부대찌개(소, 중, 대) : 13000~22000
+모듬사리 : 7,000원
+햄사리 : 5,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -882,6 +1084,18 @@
           <t>브런치,카페</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">에스프레소 음료 : 
+화이트롤 시리즈 : 
+쉬폰 케이크 시리즈 : 
+브레드 : 
+과일음료 : 
+크리스마스 케이크 사전예약 : 
+테디베어 : 
+</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -904,6 +1118,7 @@
           <t>돈까스,돌솥비빔밥</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -926,6 +1141,13 @@
           <t>부리또,치킨</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부리또_치킨감자 : 4,000원
+부리또 : 
+</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -948,6 +1170,12 @@
           <t>카페,브런치</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">진토닉 : 5,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -970,6 +1198,26 @@
           <t>샐러드,테이크아웃</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">목살스테이크샐러드 : 6,500원
+닭가슴살스테이크샐러드 : 6,500원
+닭다리살스테이크샐러드 : 6,900원
+모짜렐라치즈샐러드 : 5,900원
+리코타치즈샐러드 : 6,500원
+훈제연어샐러드 : 6,500원
+새우자몽샐러드 : 6,900원
+그린샐러드 : 4,500원
+콩앤콩샐러드 : 6,900원
+구운채소샐러드 : 6,900원
+칠리파스타샐러드 : 5,900원
+바질페스토파스타샐러드 : 5,900원
+분짜샐러드 : 7,500원
+투고샌드위치 : 5,500원
+투고스프 : 3,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -992,6 +1240,19 @@
           <t>이문동베트남음식,쌀국수</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">반쎄오 : 6,500원
+쌀국수 : 7,500원
+껌스언 : 7,500원
+매운쌀국수 : 8,000원
+분짜 : 8,500원
+분팃느엉 : 8,500원
+넴 : 3,500원
+콜라 / 사이다 : 1,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1014,6 +1275,14 @@
           <t>파스타,치킨</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">후라이드치킨 : 15,000원
+소이버섯크림 파스타 : 8,000원
+수제피자 : 10,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1036,6 +1305,17 @@
           <t>피자</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">세배 피자(L) : 34,900원
+스타셰프 시그니처 피자(L) : 36,900원
+스타셰프 트러플바질 피자(L) : 36,900원
+글로벌레전드4 피자(L) : 35,900원
+시리얼 칠리크랩 피자(L) : 34,900원
+30치즈&amp;뉴욕스트립스테이크 피자(L) : 34,900원
+</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1058,6 +1338,15 @@
           <t>브런치,파스타</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">스페셜 브런치 : 9,800원
+라자냐 : 13,800원
+봉골레 파스타 : 12,800원
+브리&amp;리코타 피자 : 15,800원
+</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1080,6 +1369,7 @@
           <t>꼬막비빔밥,삼겹살</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1102,92 +1392,137 @@
           <t>양꼬치,꿔바로우</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">꿔보러우 : 13,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dr닭터</t>
+          <t>아욱꽃</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 287-44</t>
+          <t>서울 동대문구 이문동 305-85</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>02-966-2732</t>
+          <t>02-965-2946</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>치킨스테이크,치킨</t>
-        </is>
-      </c>
+          <t>돈까스</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>아욱꽃</t>
+          <t>도란도란곱창</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>서울 동대문구 이문동 305-85</t>
+          <t>서울특별시 동대문구 이문동 305-71</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>02-965-2946</t>
+          <t>02-960-3701</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>돈까스</t>
+          <t>야채곱창,곱창</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">야채곱창 : 7,000원
+순대볶음 : 7,000원
+오돌뼈 : 7,000원
+알곱창 : 7,500원
+막창구이(소금) : 8,500원
+막창구이(양념) : 8,500원
+막창구이(간장) : 8,500원
+계란말이 : 8,000원
+닭똥집 : 8,000원
+닭발 : 8,000원
+소주 : 4,000원
+맥주 : 4,000원
+음료수 : 1,500원
+</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>멜팅폼</t>
+          <t>Dr닭터</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 264-410</t>
+          <t>서울특별시 동대문구 이문동 287-44</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>02-960-2544</t>
+          <t>02-966-2732</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>치킨스테이크,치킨</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">치킨스테이크 : 5,000원
+치킨양념스테이크 : 5,000원
+닭터바비큐 : 9,000원
+</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>도란도란곱창</t>
+          <t>멜팅폼</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 305-71</t>
+          <t>서울특별시 동대문구 이문동 264-410</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>02-960-3701</t>
+          <t>02-960-2544</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>야채곱창,곱창</t>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">멜팅 라떼 : 5,500원
+아이스크림 라떼 : 6,000원
+폼폼 라떼 : 6,500원
+팝팝 라떼 : 6,500원
+딸기 라떼 : 6,500원
+유니콘 토스트 : 5,500원
+별별 파르페 : 4,500원
+</t>
         </is>
       </c>
     </row>
@@ -1212,6 +1547,7 @@
           <t>치킨스테이크,치킨</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1234,6 +1570,18 @@
           <t>티라미수,커피</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">아메리카노 : 3,500원
+카푸치노 : 4,000원
+에스프레소 : 3,000원
+카페라떼 : 4,000원
+바닐라라떼 : 4,000원
+돌체라떼 : 4,000원
+카페모카 : 4,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1256,6 +1604,30 @@
           <t>슈크림,라떼</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">시나몬 롤 돌체 라떼 : 6,100원
+크리스마스 콜드 브루 콘 파나 : 5,800원
+토피 넛 라떼 : 5,800원
+토피 넛 팝콘 트리 프라푸치노 : 6,500원
+캐모마일 릴렉서 : 6,100원
+다크 초콜릿 : 6,100원
+카페 아메리카노 : 4,100원
+카페 라떼 : 4,600원
+스타벅스 돌체 라떼 : 5,600원
+카라멜 마키아또 : 5,600원
+카푸치노 : 4,600원
+카페 모카 : 5,100원
+화이트 초콜릿 모카 : 5,600원
+콜드 브루 : 4,500원
+자몽 허니 블랙 티 : 5,300원
+아이스 자몽 허니 블랙 티 : 5,300원
+망고 바나나 블렌디드 : 6,300원
+에스프레소 프라푸치노 : 5,100원
+자바 칩 프라푸치노 : 6,100원
+</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1278,6 +1650,16 @@
           <t>누텔라,카페</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">누텔라쉐이크 : 5,200원
+아메리카노 : 
+쩐주나이차 : 3,800원
+코코넛 스무디 커피 : 5,300원
+자몽 자스민 그린티 : 4,300원
+</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1300,6 +1682,29 @@
           <t>치킨,간장치킨</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">충만후라이드 : 15,000원
+마늘간장치킨 : 16,000원
+매콤마늘양념 : 16,000원
+레드핫치킨 : 16,000원
+스노우 어니언 : 17,000원
+커리스노우어니언 : 17,000원
+핫스노우어니언 : 17,000원
+간장파닭 : 17,000원
+매니아치킨 : 17,000원
+간장티꾸닭 : 18,000원
+고추장티꾸닭 : 18,000원
+커리티꾸닭 : 18,000원
+베이컨스피니치 : 19,000원
+치즈몬스터 : 18,000원
+티꾸간장/고추장똥집 : 10,000원
+치즈볼 : 5,000원
+치즈스틱 : 3,000원
+새우튀김 : 5,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1322,6 +1727,7 @@
           <t>경희대김치찌개,닭곰탕</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1344,6 +1750,35 @@
           <t>수플레,카페</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">수플레 플레인 : 9,900원
+수플레 더티초코 : 12,900원
+수플레 후르츠 : 12,900원
+크로플 플레인 : 5,900원
+크로플 브라운치즈 : 6,900원
+바스크 치즈케이크 말차 : 5,500원
+롱블랙  : 4,000원
+카페라떼 : 4,500원
+아인슈페너 : 5,000원
+바닐라라떼 : 5,000원
+연유라떼 : 5,000원
+말차라떼 : 5,000원
+초코라떼 : 5,000원
+피스타치오 크림라떼 : 5,500원
+아몬드크림 카페모카 : 5,500원
+시그니처 당고라떼 : 6,000원
+얼그레이 티 : 6,000원
+신비레몬티 : 6,000원
+청포도에이드 : 5,000원
+블루레몬에이드 : 5,000원
+복숭아에이드 : 5,000원
+플레인수플레 세트 : 17,000원
+수플레 택1 세트 : 19,900원
+비프샌드위치 : 19,900원
+</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1366,6 +1801,27 @@
           <t>해물,해물요리</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">중식 회정식 : 35,000원
+석식 회정식 : 45,000원
+모듬회(3인) : 100,000원
+모듬회(4인) : 150,000원
+활어 우럭탕/지리 : 15,000원
+생 대구탕/지리 : 15,000원
+전복 해초 비빔밥 : 15,000원
+활어 회덮밥 : 13,000원
+통영 멍게 비빔밥 : 13,000원
+낙지 돌솥밥 : 12,000원
+해물 돌솥밥 : 8,000원
+김치돌솥밥 : 8,000원
+알밥 : 8,000원
+해물파전 : 13,000원
+생선구이 : 13,000원
+활어 안주회 : 50,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1388,6 +1844,45 @@
           <t>꿔바로우,중국집</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">꿔바로우 : 13,000원
+양꼬치 : 12,000원
+지삼선 : 10,000원
+향라새우 : 18,000원
+어향가지 : 10,000원
+마파두부 : 10,000원
+홍소육 : 12,000원
+마라향궈 : 25,000원
+토마토계란볶음 : 10,000원
+파망돼자고기볶음 : 12,000원
+철판소고기 : 18,000원
+라즈지  : 12,000원
+소고기오이무침 : 15,000원
+꽃빵튀김 : 5,000원
+철판두부 : 12,000원
+간장볶음밥 : 6,000원
+커우쑤이지 : 13,000원
+공보계정 : 12,000원
+홍소닭고기 : 12,000원
+즈런오징어 : 15,000원
+경장육슬 : 15,000원
+삼겹살볶음 : 12,000원
+광주볶음면 : 7,000원
+샤오롱바오 : 6,000원
+닭가슴살튀김 : 13,000원
+지마구 : 5,000원
+마라가재 : 28,000원
+파인애플탕초등심 : 13,000원
+향라육슬 : 12,000원
+마라새우  : 25,000원
+양배추볶음  : 10,000원
+물만두 : 6,000원
+감자채무침 : 8,000원
+곱창볶음 : 15,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1410,6 +1905,13 @@
           <t>돈가스,등심</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">등심돈가스 : 5,900원
+피자돈가스 : 6,900원
+</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1432,6 +1934,7 @@
           <t>카레,돈까스</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1454,70 +1957,95 @@
           <t>마라탕,마라샹궈</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">마라우육면 : 7,800원
+동파육 : 7,800원
+마라샹궈 : 10,000원
+찹쌀치킨밥 : 7,800원
+</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>카페 꾸오레</t>
+          <t>파치 외대점</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>서울 동대문구 이문동 335-13</t>
+          <t>서울특별시 동대문구 이문동 264-140</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>02-960-0232</t>
+          <t>02-968-8782</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>커피,카페</t>
+          <t>파스타</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">투움바 : 8,500원
+</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>디어 아그네스</t>
+          <t>카페 꾸오레</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>서울 동대문구 이문동 322-3</t>
+          <t>서울 동대문구 이문동 335-13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>010-2338-4814</t>
+          <t>02-960-0232</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>과자점,카페</t>
-        </is>
-      </c>
+          <t>커피,카페</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>파치 외대점</t>
+          <t>디어 아그네스</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 264-140</t>
+          <t>서울 동대문구 이문동 322-3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>02-968-8782</t>
+          <t>010-2338-4814</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>파스타</t>
+          <t>과자점,카페</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">피칸초코르뱅쿠키 : 2,800원
+스모어쿠키 : 2,800원
+에그타르트 : 2,900원
+위크앤드(레몬케이크) : 2,500원
+</t>
         </is>
       </c>
     </row>
@@ -1542,6 +2070,7 @@
           <t>라멘,차슈덮밥</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1564,6 +2093,7 @@
           <t>빵집,건강빵</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1586,6 +2116,14 @@
           <t>집밥,밥집</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">生등심 돈까스 : 7,000원
+바지락 순두부 찌개 : 7,000원
+고추장 제육볶음 : 7,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1608,6 +2146,20 @@
           <t>커피,카페</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">아메리카노 : 3,500원
+커파남 수제 글레이즈드 레몬 파운드케이크 : 3,000원
+커파남 수제 오레오 스콘 : 3,800원
+커파남 수제 르뱅 초코칩 쿠키 : 3,600원
+커파남 르뱅 더블 초코칩 쿠키 : 3,600원
+커파남 피넛 버터 크림라떼 : 4,700원
+카페라떼 : 4,200원
+커파남라떼 : 4,500원
+바닐라라떼 : 4,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1630,46 +2182,73 @@
           <t>피자</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">수퍼 파파스(L) 피자 : 26,500원
+아이리쉬 포테이토(L) 피자 : 25,500원
+스파이시 치킨랜치(L) 피자 : 27,500원
+더블 치즈버거(L) 피자 : 27,500원
+존스 페이버릿(L) 피자 : 27,500원
+올미트(L) 피자 : 27,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>배드해빗클럽</t>
+          <t>청년다방 외대점</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 316-2</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>서울특별시 동대문구 이문동 292-185</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>02-963-9838</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>감바스,술집</t>
+          <t>차돌박이떡볶이,떡볶이</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">차돌박이떡볶이(중) : 14,500원
+통큰오짱떡볶이(중) : 14,500원
+깻잎순대떡볶이(중) : 13,500원
+청년돈까스 : 7,500원
+다모아튀김 : 9,500원
+버터갈릭감자튀김 : 4,500원
+아메리카노 : 1,500원
+핫크림치즈볼떡볶이 : 19,500원
+통통순살치킨 : 9,500원
+통통순살양념치킨 : 10,500원
+</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>청년다방 외대점</t>
+          <t>배드해빗클럽</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 292-185</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>02-963-9838</t>
-        </is>
-      </c>
+          <t>서울특별시 동대문구 이문동 316-2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>차돌박이떡볶이,떡볶이</t>
-        </is>
-      </c>
+          <t>감바스,술집</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1692,6 +2271,15 @@
           <t>녹두삼계탕,삼계탕</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">녹두삼계탕 : 12,000원
+녹두반계탕 : 8,000원
+소머리국밥 : 9,000원
+순대국 : 7,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1714,6 +2302,19 @@
           <t>이문동곱창,불곱창</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">야채곱창(2인)+날치알주먹밥 : 14,000원
+오돌뼈+곱창(2인)+날치알주먹밥 : 14,000원
+돼지껍데기+곱창(2인)+날치알주먹밥 : 14,000원
+순대+곱창(2인)+날치알주먹밥 : 14,000원
+삼겹살+불곱창(2인)+날치알주먹밥 : 17,000원
+막창구이(2인)+날치알주먹밥 : 17,000원
+갈메기+막창(2인)+날치알주먹밥 : 17,000원
+곱창전골(2인)+공기밥 : 17,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1736,6 +2337,20 @@
           <t>부대찌개</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">부대찌개 : 6,500원
+부대찌개 포장 (소) : 12,000원
+부대찌개 포장 (중) : 17,000원
+부대찌개 포장 (대) : 20,000원
+라면사리 : 1,500원
+햄사리 : 3,000원
+당면사리 : 2,000원
+떡사리 : 2,000원
+만두사리 : 2,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1758,6 +2373,28 @@
           <t>해물죽,전복죽</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">전복죽 : 11,000원
+트러플전복죽 : 16,000원
+홍게품은죽 : 13,000원
+쇠고기야채죽 : 9,000원
+자연송이쇠고기죽 : 13,000원
+삼계죽 : 11,000원
+삼계전복죽 : 15,000원
+낙지김치죽 : 9,500원
+7가지야채죽 : 8,000원
+신짬뽕죽 : 10,000원
+불낙죽 : 11,000원
+해물죽 : 10,000원
+단호박죽 : 9,000원
+동지팥죽 : 9,000원
+해물김치해장죽 : 10,000원
+6쪽마늘닭죽 : 11,000원
+전복내장죽 : 13,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1780,6 +2417,26 @@
           <t>스시</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특모듬초밥 : 20,000원
+모듬초밥 : 15,000원
+A코스 : 35,000원
+B코스 : 25,000원
+특모듬회 : 40,000원
+모듬회 : 35,000원
+장어초밥 : 21,000원
+광어초밥 : 21,000원
+연어초밥 : 18,000원
+새우초밥 : 10,000원
+회덮밥 : 10,000원
+장어덮밥 : 16,000원
+알밥 : 12,000원
+연어알마끼 : 4,000원
+날치알마끼 : 2,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1802,6 +2459,31 @@
           <t>카레,스테이크</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">핫치킨MVP : 3,700원
+딥치즈 베이컨 포테이토 : 4,100원
+베이컨 포테이토 피자 : 4,500원
+딥치즈 베이컨 : 3,500원
+더블치즈 돈까스 : 4,400원
+베이컨 치즈 베이글 : 3,900원
+베이컨베스트 : 3,300원
+더블 치즈 감자 : 3,500원
+피자 : 3,900원
+불갈비 MVP : 3,900원
+불고기 MVP : 3,500원
+스테이크햄 VIP : 3,300원
+햄스페셜 : 2,900원
+감자 : 3,100원
+햄치즈 : 2,600원
+햄치즈 포테이토 : 3,300원
+맵달맵달 리챔 : 3,900원
+새우토스트 : 3,900원
+더블소세지 토스트 : 3,900원
+트리플소세지 토스트 : 4,400원
+</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1824,6 +2506,16 @@
           <t>돈까스</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">왕돈까스 : 5,000원
+치즈돈까스 : 5,500원
+고구마치즈돈까스 : 5,500원
+치킨까스 : 5,000원
+순두부찌개 : 4,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1846,6 +2538,14 @@
           <t>인도커리,인도음식</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">야채커리 : 9,000원
+고기커리 : 9500~10500
+세트메뉴 : 9500~24000~30000
+</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1868,6 +2568,15 @@
           <t>타코,멕시칸</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">쉬림프 프레쉬 볼 : 7,900원
+비프 프레쉬 볼 : 7,900원
+닭가슴살 프레쉬 볼 : 6,900원
+포크 프레쉬 볼 : 6,900원
+</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1890,88 +2599,144 @@
           <t>마라탕,마라샹궈</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">꿔바로우 : 14,000원
+황멍지 : 15,000원
+마라룽샤 : 35,000원
+어향육슬 : 13,000원
+가지고기볶음 : 13,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>버킷리스트</t>
+          <t>고흥소곱창</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 305-6</t>
+          <t>서울특별시 동대문구 이문1동 305-3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>02-966-3022</t>
+          <t>02-963-4704</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>칵테일바,술집</t>
+          <t>소곱창,삼겹살</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">소 곱창 : 22,000원
+소 막창 : 20,000원
+냉삼겹 : 7,500원
+부추생삼겹 : 13,000원
+삼겹정식 : 6,500원
+</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>별파스타</t>
+          <t>버킷리스트</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 264-262</t>
+          <t>서울특별시 동대문구 이문동 305-6</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>070-8126-2264</t>
+          <t>02-966-3022</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>파스타</t>
+          <t>칵테일바,술집</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cocktail : 8000~10000
+Bottle : 49,000원
+Food : 13,000원
+Beer : 5,000원
+</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>명가식당</t>
+          <t>별파스타</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 288-18</t>
+          <t>서울특별시 동대문구 이문동 264-262</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>02-965-0172</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>070-8126-2264</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>파스타</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">베이컨까르보나라 : 8,000원
+해산물토마토 : 10,000원
+알리오올리오 : 8,000원
+쉬림프날치알 : 10,000원
+스파이시쉬림프로제리조또 : 10,000원
+스파이시쉬림프갈릭올리오 : 10,000원
+케이준필라프 : 8,000원
+등심돈가스 : 8,000원
+고로곤졸라피자 : 10,000원
+카프레제샐러드 : 7,000원
+마르게리따피자 : 10,000원
+쉬림프로제빠네 : 12,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>고흥소곱창</t>
+          <t>명가식당</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문1동 305-3</t>
+          <t>서울특별시 동대문구 이문동 288-18</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>02-963-4704</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>소곱창,삼겹살</t>
+          <t>02-965-0172</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">국내산 생삼겹살 : 12,000원
+국내산 돼지갈비 : 12,000원
+녹두 삼계탕(국내산) : 12,000원
+녹두 반계탕(국내산) : 8,000원
+굴 콩나물 국밥(계절 음식) : 6,000원
+</t>
         </is>
       </c>
     </row>
@@ -1996,6 +2761,21 @@
           <t>생딸기,빙수</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">인절미설빙 : 7,900원
+팥인절미설빙 : 8,900원
+초코브라우니설빙 : 9,900원
+치즈설빙 : 9,900원
+애플망고치즈설빙 : 11,900원
+블루베리치즈설빙 : 10,900원
+리얼그린티설빙 : 9,500원
+그린티초코설빙 : 10,500원
+오레오초코몬스터설빙 : 10,900원
+티라미수설빙 : 10,900원
+</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2018,70 +2798,123 @@
           <t>주먹밥,오므라이스</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">퓨전주먹밥모듬 중 : 5,000원
+퓨전주먹밥모듬 대 : 60,000원
+돈까스 : 5,000원
+김치볶음밥 : 4,000원
+오므라이스 : 4,000원
+떡볶이 : 10,000원
+돼지김치찌개 : 12,000원
+두부김치 : 8,000원
+오뎅탕 : 10,000원
+오징어볶음 : 10,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>청춘상회</t>
+          <t>아경면선</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 292-33</t>
+          <t>서울특별시 동대문구 이문동 336-3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>010-3233-2125</t>
+          <t>02-6498-6222</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>화로구이,고기집</t>
+          <t>대만,곱창</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">곱창국수 중간컵 : 3,900원
+루로우판 : 6,000원
+차돌국수 중간컵 : 4,600원
+오징어국수 중간컵 : 3,900원
+굴국수 중간컵 : 3,900원
+버블티 S : 2,500원
+딸기타로버블티 S : 3,500원
+버블리 세트 1 : 5,500원
+루로우 세트 1 : 7,000원
+</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>이상준초밥</t>
+          <t>청춘상회</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 305-59</t>
+          <t>서울특별시 동대문구 이문동 292-33</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>02-969-8100</t>
+          <t>010-3233-2125</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>스시,연어초밥</t>
+          <t>화로구이,고기집</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">화로삼겹살 : 7,000원
+꽃목살 (이베리코) : 9,000원
+양념갈매기살 : 7,000원
+대구막창 : 9,000원
+돼지양념갈비 : 10,000원
+오돌갈비 : 9,000원
+불닭발 : 9,000원
+껍데기 : 6,000원
+모둠삽겹 삼+목+껍 600g : 21,000원
+모둠2 갈+막+껍 : 20,000원
+</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>아경면선</t>
+          <t>이상준초밥</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>서울특별시 동대문구 이문동 336-3</t>
+          <t>서울특별시 동대문구 이문동 305-59</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>02-6498-6222</t>
+          <t>02-969-8100</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>대만,곱창</t>
+          <t>스시,연어초밥</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">커플초밥 (초밥20p,면.새우튀김) : 26,000원
+모듬초밥(초밥10p,면) : 10,000원
+특초밥(초밥12p.면) : 15,000원
+레이디초밥(초밥10p.면) : 10,000원
+</t>
         </is>
       </c>
     </row>
@@ -2106,6 +2939,12 @@
           <t>커피,카페</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">아메리카노 : 4,800원
+</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2128,6 +2967,14 @@
           <t>커피,카페</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">아메리카노 : 2,500원
+바닐라 라떼 : 3,700원
+딸기 썸빙 : 9,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2150,6 +2997,23 @@
           <t>한국김밥</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">야채김밥 : 2,000원
+참치마요김밥 : 3,500원
+새우날치알김밥 : 4,500원
+참치볶음밥 : 6,000원
+야채비빔밥 : 5,000원
+된장찌개 : 5,000원
+순두부찌개 : 5,500원
+돌솥비빔밥 : 6,000원
+오므라이스 : 6,000원
+육개장 : 6,000원
+등심돈까스 : 6,000원
+치즈돈까스 : 6,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2168,6 +3032,17 @@
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">김치고등어조림 : 7,000원
+고등어구이 : 7,000원
+수제 돈까스 : 6,000원
+냄비우동 : 5,000원
+냉모밀국수 : 6,000원
+김치돈까스나베 : 7,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2190,6 +3065,12 @@
           <t>메론빙수,카페</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">어메리카노 : 3,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2212,6 +3093,7 @@
           <t>술집,떡볶이</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2234,6 +3116,17 @@
           <t>치킨,간장치킨</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">치슐랭 : 14,500원
+후끈이 : 13,900원
+크리스피치킨 : 11,500원
+치즈칠리로스트 : 12,900원
+어니언치킨 : 14,500원
+파닭 : 14,500원
+</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2256,6 +3149,20 @@
           <t>중국집,탕수육</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">짜장면 : 5,000원
+짬뽕 : 6,000원
+간짜장 : 6,000원
+삼선자장 : 7,500원
+삼선짬뽕 : 9,000원
+삼선울면 : 9,000원
+볶음밥 : 6,000원
+쟁반짜장면 : 7,500원
+탕수육(소/중/대) : 13000~28000
+</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2278,6 +3185,16 @@
           <t>뚝배기떡볶이,버거</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NEW한우불고기(단품/세트) : 6500~8200
+NEW모짜렐라인더버거 해쉬 : 4500~6100
+NEW모짜렐라인더버거 더블 : 5300~6900
+트위스트감자 : 2,000원
+AZ버거오리지널 : 6200~7200
+</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2300,6 +3217,15 @@
           <t>커피,스터디카페</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">더치커피 : 3,500원
+아메리카노 : 2,800원
+연유라떼 : 3,800원
+생과일쥬스 : 
+</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2322,6 +3248,24 @@
           <t>이자카야</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">차슈문어삼합 : 29,000원
+삼치구이 : 19,000원
+육회와연어 : 18,000원
+새우구이 : 16,000원
+연어샐러드 : 15,000원
+나가사끼짬뽕 : 16,000원
+해물짬뽕 : 16,000원
+오꼬노미야끼 : 15,000원
+치킨가라아케 : 15,000원
+간바레오도상 : 35,000원
+네노히오이시준마이 : 32,000원
+산토리하이볼 : 7,000원
+밀푀유나베 : 25,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2344,6 +3288,32 @@
           <t>핫도그,치즈</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">명랑 핫도그 : 1,000원
+통 가래떡 핫도그 : 1,500원
+점보 핫도그 : 1,800원
+체다 치즈 핫도그 : 1,800원
+먹물 치즈 핫도그 : 1,800원
+모짜렐라 IN THE 핫도그 : 1,800원
+모짜 체다 핫도그 : 2,300원
+통모짜 핫도그 : 2,000원
+감자 핫도그 : 2,300원
+숯불 갈비맛 핫도그 : 2,000원
+모짜 맵구마 핫도그 : 2,300원
+감자 통모짜핫도그 : 2,500원
+고구마 통모짜핫도그 : 2,500원
+치즈폭탄세트 : 12,300원
+명랑한세트 : 11,300원
+따따블 치즈 핫도그 : 2,700원
+휴게소세트 : 12,000원
+쫀달치즈볼(5개) : 4,000원
+불닭치즈소떡 : 2,500원
+양념감자튀김 : 2,000원
+몬스따 따블 핫도그 : 2,900원
+</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2366,6 +3336,14 @@
           <t>양많은,곱창</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">곱창볶음 : 10,000원
+알곱창 : 11,000원
+눈꽃치즈곱창 : 13,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2388,6 +3366,18 @@
           <t>고기만두,만두</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">고기만두 8개 : 3,000원
+김치만두 8개 : 3,000원
+고추만두 8개 : 3,000원
+2인 모듬 즉석 떡볶이 : 12,000원
+1인 모듬 즉석 떡볶이 : 7,000원
+왕만두 : 3,500원
+찐빵(3개) : 3,000원
+</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2408,6 +3398,25 @@
       <c r="D91" t="inlineStr">
         <is>
           <t>이문동생삼겹살,고기집</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">소 한마리(1.4kg) : 44,000원
+소 반마리(900g) : 35,000원
+갈비살(180g) : 12,000원
+생등심(180g) : 12,000원
+차돌박이(180g) : 12,000원
+부채살(180g) : 12,000원
+살치살(180g) : 13,000원
+돼지 한마리(1kg) : 38,000원
+돼지 반마리(600g) : 25,000원
+생삼겹살(180g) : 8,000원
+목살(180g) : 8,000원
+항정살(180g) : 9,000원
+가브리살(180g) : 8,000원
+생삼겹살(국내산)(200g) : 12,000원
+</t>
         </is>
       </c>
     </row>
